--- a/diversityTool/LITE Diversity Survey metrics list.xlsx
+++ b/diversityTool/LITE Diversity Survey metrics list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actionsustainability.sharepoint.com/sites/SustainabilityTool527/Shared Documents/Tool Clients/FIR diversity tool/2023/Support documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="8_{49A27100-090F-452F-9944-D250BE654CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AA61271-9606-4F0B-9AE4-215AF5DD4088}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="8_{49A27100-090F-452F-9944-D250BE654CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01BCA352-D06F-4421-9950-5149A13D8D8D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51640A4E-1D33-420F-98C5-94C9D1F43265}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51640A4E-1D33-420F-98C5-94C9D1F43265}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporting" sheetId="3" r:id="rId1"/>
@@ -1343,7 +1343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1359,12 +1359,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,12 +1388,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1552,30 +1546,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1585,41 +1588,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1644,60 +1681,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2013,153 +2015,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B567A7-59C5-40B8-B07F-CA8FD1B548E0}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:AU211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="109.54296875" customWidth="1"/>
+    <col min="2" max="41" width="8.7265625" style="58"/>
+    <col min="42" max="47" width="8.7265625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34"/>
+      <c r="A2" s="29"/>
     </row>
     <row r="3" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+      <c r="A5" s="45"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
+      <c r="A6" s="45"/>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="38"/>
+      <c r="A7" s="46"/>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="47" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
+      <c r="A11" s="48"/>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
+      <c r="A12" s="48"/>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="41"/>
+      <c r="A13" s="49"/>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
+      <c r="A17" s="51"/>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="53" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="55" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="55" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="56" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="56" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="56" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="56" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="57" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="65" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="54" t="s">
         <v>356</v>
       </c>
     </row>
+    <row r="35" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p8yuqoZfQ/+4hlAEpIhBSbMLQ/lbCdObk8yiO3L443tSCOxy/7lnskXn1fOuCr8pB081DcdsGCEBrSQzh81zPQ==" saltValue="9vxz1N2QVAcZ3tDRvJYjwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cEt/dQ8klJsx6M3R8x47yXwePlVNh0ut8x13vJb+m+Pt0TiIVQaRZmDtsEzFGEiCnXfy5ihDssjrOQKlHTNuwg==" saltValue="XzFyuZ8ervWpDiZwC/gahQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A10:A13"/>
@@ -2179,1515 +2360,1751 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9E6CEA-642D-47B2-B2C6-8C2D5DE0CB07}">
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:AY544"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="108.90625" customWidth="1"/>
+    <col min="2" max="51" width="8.7265625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="44" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37"/>
+      <c r="A3" s="45"/>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="45"/>
     </row>
     <row r="5" spans="1:1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38"/>
+      <c r="A5" s="46"/>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
+      <c r="A32" s="25"/>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="61" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="61" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="61" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="21" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="21" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="21" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="20" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="20" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="58" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="21" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="45" t="s">
+      <c r="A105" s="32" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="62" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="26" t="s">
+      <c r="A115" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="23" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="23" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="28" t="s">
+      <c r="A129" s="23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="28" t="s">
+      <c r="A130" s="23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="28" t="s">
+      <c r="A132" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="28" t="s">
+      <c r="A134" s="23" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="28" t="s">
+      <c r="A135" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="28" t="s">
+      <c r="A136" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="24" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="26" t="s">
+      <c r="A139" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="48" t="s">
+      <c r="A141" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="28" t="s">
+      <c r="A142" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="28" t="s">
+      <c r="A144" s="23" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="28" t="s">
+      <c r="A146" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="28" t="s">
+      <c r="A147" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="23" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="28" t="s">
+      <c r="A149" s="23" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="28" t="s">
+      <c r="A150" s="23" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="28" t="s">
+      <c r="A151" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="28" t="s">
+      <c r="A152" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="23" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="28" t="s">
+      <c r="A154" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="28" t="s">
+      <c r="A156" s="23" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="28" t="s">
+      <c r="A157" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="28" t="s">
+      <c r="A160" s="23" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="26" t="s">
+      <c r="A161" s="21" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="27" t="s">
+      <c r="A162" s="22" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="26" t="s">
+      <c r="A164" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="48" t="s">
+      <c r="A165" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="48" t="s">
+      <c r="A166" s="35" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="28" t="s">
+      <c r="A167" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="28" t="s">
+      <c r="A168" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="23" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="28" t="s">
+      <c r="A171" s="23" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="28" t="s">
+      <c r="A172" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="28" t="s">
+      <c r="A173" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="28" t="s">
+      <c r="A174" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="28" t="s">
+      <c r="A175" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="28" t="s">
+      <c r="A176" s="23" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="28" t="s">
+      <c r="A177" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="28" t="s">
+      <c r="A178" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="28" t="s">
+      <c r="A179" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="28" t="s">
+      <c r="A180" s="23" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="28" t="s">
+      <c r="A181" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="28" t="s">
+      <c r="A182" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="28" t="s">
+      <c r="A183" s="23" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="28" t="s">
+      <c r="A184" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="28" t="s">
+      <c r="A185" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="29" t="s">
+      <c r="A186" s="24" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="49" t="s">
+      <c r="A187" s="36" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="48" t="s">
+      <c r="A188" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="48" t="s">
+      <c r="A189" s="35" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="48" t="s">
+      <c r="A190" s="35" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="28" t="s">
+      <c r="A191" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="28" t="s">
+      <c r="A192" s="23" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="28" t="s">
+      <c r="A193" s="23" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="28" t="s">
+      <c r="A194" s="23" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="28" t="s">
+      <c r="A195" s="23" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="28" t="s">
+      <c r="A196" s="23" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="28" t="s">
+      <c r="A197" s="23" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="28" t="s">
+      <c r="A198" s="23" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="28" t="s">
+      <c r="A199" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="28" t="s">
+      <c r="A200" s="23" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="28" t="s">
+      <c r="A201" s="23" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="28" t="s">
+      <c r="A202" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="28" t="s">
+      <c r="A203" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="28" t="s">
+      <c r="A204" s="23" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="28" t="s">
+      <c r="A205" s="23" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="28" t="s">
+      <c r="A206" s="23" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="28" t="s">
+      <c r="A207" s="23" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="28" t="s">
+      <c r="A208" s="23" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="28" t="s">
+      <c r="A209" s="23" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="28" t="s">
+      <c r="A210" s="23" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="29" t="s">
+      <c r="A211" s="24" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="50" t="s">
+      <c r="A212" s="37" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="62" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="51" t="s">
+      <c r="A214" s="63" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="52" t="s">
+      <c r="A215" s="35" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="26" t="s">
+      <c r="A216" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="28" t="s">
+      <c r="A217" s="23" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="28" t="s">
+      <c r="A218" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="28" t="s">
+      <c r="A219" s="23" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="28" t="s">
+      <c r="A220" s="23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="28" t="s">
+      <c r="A221" s="23" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="28" t="s">
+      <c r="A222" s="23" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="28" t="s">
+      <c r="A223" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="28" t="s">
+      <c r="A224" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="28" t="s">
+      <c r="A225" s="23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="28" t="s">
+      <c r="A226" s="23" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="28" t="s">
+      <c r="A227" s="23" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="28" t="s">
+      <c r="A228" s="23" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="28" t="s">
+      <c r="A229" s="23" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="28" t="s">
+      <c r="A230" s="23" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="28" t="s">
+      <c r="A231" s="23" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="28" t="s">
+      <c r="A232" s="23" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="28" t="s">
+      <c r="A233" s="23" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="28" t="s">
+      <c r="A234" s="23" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="28" t="s">
+      <c r="A235" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="28" t="s">
+      <c r="A236" s="23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="28" t="s">
+      <c r="A237" s="23" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="26" t="s">
+      <c r="A239" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="27" t="s">
+      <c r="A240" s="22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="244" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="5" t="s">
+    <row r="241" spans="1:1" s="58" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="242" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="3" t="s">
         <v>181</v>
       </c>
     </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="26" t="s">
-        <v>316</v>
+      <c r="A245" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="26" t="s">
-        <v>182</v>
+      <c r="A246" s="21" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="26" t="s">
-        <v>183</v>
+      <c r="A247" s="21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="26" t="s">
-        <v>317</v>
+      <c r="A248" s="21" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="26" t="s">
-        <v>184</v>
+      <c r="A249" s="21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="26" t="s">
-        <v>348</v>
+      <c r="A250" s="21" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="26" t="s">
-        <v>185</v>
+      <c r="A251" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" s="26" t="s">
-        <v>186</v>
+      <c r="A252" s="21" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="26" t="s">
-        <v>187</v>
+      <c r="A253" s="21" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="26" t="s">
-        <v>188</v>
+      <c r="A254" s="21" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" s="26" t="s">
-        <v>349</v>
+      <c r="A255" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="26" t="s">
-        <v>189</v>
+      <c r="A256" s="21" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" s="26" t="s">
-        <v>190</v>
+      <c r="A257" s="21" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" s="26" t="s">
-        <v>191</v>
+      <c r="A258" s="21" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" s="26" t="s">
-        <v>192</v>
+      <c r="A259" s="21" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" s="26" t="s">
-        <v>350</v>
+      <c r="A260" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" s="26" t="s">
-        <v>193</v>
+      <c r="A261" s="21" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="26" t="s">
-        <v>194</v>
+      <c r="A262" s="21" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" s="26" t="s">
-        <v>195</v>
+      <c r="A263" s="21" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" s="26" t="s">
-        <v>196</v>
+      <c r="A264" s="21" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" s="26" t="s">
-        <v>351</v>
+      <c r="A265" s="21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" s="26" t="s">
-        <v>197</v>
+      <c r="A266" s="21" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" s="26" t="s">
+      <c r="A267" s="21" t="s">
         <v>200</v>
       </c>
     </row>
+    <row r="268" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A268" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="270" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="272" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="7" t="s">
+      <c r="A270" s="4" t="s">
         <v>201</v>
       </c>
     </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" s="8" t="s">
-        <v>202</v>
+      <c r="A273" s="38" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" s="35" t="s">
-        <v>203</v>
+      <c r="A274" s="18" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" s="53" t="s">
-        <v>318</v>
+      <c r="A275" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" s="22" t="s">
-        <v>204</v>
+      <c r="A276" s="38" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" s="22" t="s">
-        <v>205</v>
+      <c r="A277" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" s="53" t="s">
-        <v>319</v>
+      <c r="A278" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" s="22" t="s">
-        <v>206</v>
+      <c r="A279" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" s="22" t="s">
-        <v>207</v>
+      <c r="A280" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" s="22" t="s">
-        <v>208</v>
+      <c r="A281" s="38" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" s="22" t="s">
-        <v>209</v>
+      <c r="A282" s="18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" s="53" t="s">
-        <v>320</v>
+      <c r="A283" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" s="22" t="s">
-        <v>210</v>
+      <c r="A284" s="59" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" s="22" t="s">
-        <v>211</v>
+      <c r="A285" s="59" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" s="54" t="s">
-        <v>212</v>
+      <c r="A286" s="38" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" s="23" t="s">
-        <v>213</v>
+      <c r="A287" s="39" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" s="53" t="s">
-        <v>321</v>
+      <c r="A288" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" s="55" t="s">
-        <v>214</v>
+      <c r="A289" s="38" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" s="21" t="s">
-        <v>215</v>
+      <c r="A290" s="17" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" s="53" t="s">
-        <v>322</v>
+      <c r="A291" s="17" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" s="21" t="s">
-        <v>216</v>
+      <c r="A292" s="17" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" s="21" t="s">
-        <v>217</v>
+      <c r="A293" s="17" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" s="21" t="s">
-        <v>218</v>
+      <c r="A294" s="38" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" s="21" t="s">
-        <v>219</v>
+      <c r="A295" s="17" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" s="53" t="s">
-        <v>323</v>
+      <c r="A296" s="17" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" s="21" t="s">
-        <v>220</v>
+      <c r="A297" s="59" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" s="21" t="s">
-        <v>221</v>
+      <c r="A298" s="59" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" s="23" t="s">
-        <v>222</v>
+      <c r="A299" s="38" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" s="23" t="s">
-        <v>223</v>
+      <c r="A300" s="40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" s="53" t="s">
-        <v>324</v>
+      <c r="A301" s="41" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302" s="56" t="s">
-        <v>224</v>
+      <c r="A302" s="38" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303" s="57" t="s">
-        <v>325</v>
+      <c r="A303" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304" s="53" t="s">
-        <v>326</v>
+      <c r="A304" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305" s="22" t="s">
-        <v>225</v>
+      <c r="A305" s="18" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306" s="22" t="s">
-        <v>226</v>
+      <c r="A306" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" s="22" t="s">
-        <v>227</v>
+      <c r="A307" s="38" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309" s="53" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310" s="21" t="s">
+      <c r="A308" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A311" s="58" t="s">
+    <row r="309" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A309" s="42" t="s">
         <v>328</v>
       </c>
     </row>
+    <row r="310" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="58" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b1Sz9aPZDkXVA9r0GCr7m18h9vuW+Xh/THDaV3JSXzdk9wkiQoYDZ8jEzdGGlq9MlTcRMvqkn+Iq4pgrV7sWIg==" saltValue="zGCcFp96XcL6Jn+kjv9N0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E7FCo6zutsfYc6vSOWCBC9Cv/on2nygoj0oizdO1GIj2NfjQIeKVzlCHQ/4MPNUtfx5LQtM4ZE66aIuQamoaMg==" saltValue="748JcIhVHX2p8qwl6idXyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>
   </mergeCells>
@@ -3719,340 +4136,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="13" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="13" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="13" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4069,6 +4486,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce030c41-a65b-41c3-8b29-370418f0c571">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84f3f96e-86b0-45e5-befd-d0e6637563a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003838AE3E0C06F54FA57C86F87FB55777" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="041d9526ebd64ace4fccb74c09506289">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ce030c41-a65b-41c3-8b29-370418f0c571" xmlns:ns3="84f3f96e-86b0-45e5-befd-d0e6637563a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33f8c78fb4e0086d819feef455ebe857" ns2:_="" ns3:_="">
     <xsd:import namespace="ce030c41-a65b-41c3-8b29-370418f0c571"/>
@@ -4311,17 +4739,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce030c41-a65b-41c3-8b29-370418f0c571">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84f3f96e-86b0-45e5-befd-d0e6637563a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2279FDCD-1040-4E7C-B537-84079C7B0208}">
   <ds:schemaRefs>
@@ -4331,6 +4748,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39A67BE-FBF8-4DC9-AF42-9740B24D9032}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ce030c41-a65b-41c3-8b29-370418f0c571"/>
+    <ds:schemaRef ds:uri="84f3f96e-86b0-45e5-befd-d0e6637563a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C94E6B49-09B9-495F-A11E-BA88974C0F72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4347,15 +4775,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39A67BE-FBF8-4DC9-AF42-9740B24D9032}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ce030c41-a65b-41c3-8b29-370418f0c571"/>
-    <ds:schemaRef ds:uri="84f3f96e-86b0-45e5-befd-d0e6637563a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>